--- a/DOCS/Tabella_FSM.xlsx
+++ b/DOCS/Tabella_FSM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23713"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C613C235-194B-4B8C-8783-D5F3C9A900CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D54218-32DA-4581-AE4B-C7418ECE49F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2220,7 +2220,7 @@
         <v>15</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>

--- a/DOCS/Tabella_FSM.xlsx
+++ b/DOCS/Tabella_FSM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\Desktop\Università\Architettura degli Elaborati\Laboratorio\Elaborato\ElaboratoSIS\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B126FEA9-4283-425E-A7EB-95AD8F477644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE30DB-52C3-49E7-8207-A22CF005240F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="25">
   <si>
     <t>STATO ATTUALE</t>
   </si>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,8 +1235,8 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>18</v>
@@ -1504,8 +1504,8 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="2">
-        <v>0</v>
+      <c r="J19" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>21</v>
@@ -1971,8 +1971,8 @@
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>14</v>
+      <c r="H31" s="2">
+        <v>0</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>

--- a/DOCS/Tabella_FSM.xlsx
+++ b/DOCS/Tabella_FSM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\Desktop\Università\Architettura degli Elaborati\Laboratorio\Elaborato\ElaboratoSIS\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\Desktop\Università\Architettura degli Elaborati\Laboratorio\ElaboratoSIS\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE30DB-52C3-49E7-8207-A22CF005240F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113E2DC3-9DCE-447A-8046-71EED89EAB6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -835,15 +835,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
     <col min="4" max="10" width="3.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.88671875" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" customWidth="1"/>
     <col min="12" max="15" width="3.6640625" customWidth="1"/>
     <col min="16" max="16" width="3.6640625" style="6" customWidth="1"/>
     <col min="17" max="17" width="3.6640625" customWidth="1"/>
